--- a/data/amsterdam_painter_url.xlsx
+++ b/data/amsterdam_painter_url.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracegao/Desktop/BassConnections/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F887AC-CFE8-2D42-9E2F-9677EFACD255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA60E68-390A-AE42-BDFC-C8CBC2234489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{3235925E-755C-5F4B-9450-B6C86931AAC1}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16700" activeTab="1" xr2:uid="{3235925E-755C-5F4B-9450-B6C86931AAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="44">
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
   <si>
     <t>&amp;subtask=selections</t>
   </si>
@@ -167,6 +165,132 @@
   </si>
   <si>
     <t>full_url</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=1&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=2&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=3&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=4&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=5&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=6&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=7&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=8&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=9&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=10&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=11&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=12&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=13&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=14&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=15&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=16&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=17&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=18&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=19&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=20&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=21&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=22&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=23&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=24&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=25&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=26&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=27&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=28&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=29&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=30&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=31&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=32&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=33&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=34&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=35&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=36&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=37&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=38&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=39&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=40&amp;subtask=selections</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=41&amp;subtask=selections</t>
   </si>
 </sst>
 </file>
@@ -538,680 +662,920 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4489361B-3C1A-684A-8EAB-BD50BA798280}">
-  <dimension ref="A2:D42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D42"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="138.5" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
         <f>_xlfn.CONCAT(A2,B2,C2)</f>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=1&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=1&amp;subtask=selections</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
+      <c r="A3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B3">
         <f>B2+1</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D42" si="0">_xlfn.CONCAT(A3,B3,C3)</f>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=2&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=2&amp;subtask=selections</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
+      <c r="A4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B42" si="1">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=3&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=3&amp;subtask=selections</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="A5" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=4&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=4&amp;subtask=selections</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
+      <c r="A6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=5&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=5&amp;subtask=selections</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
+      <c r="A7" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=6&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=6&amp;subtask=selections</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
+      <c r="A8" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=7&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=7&amp;subtask=selections</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
+      <c r="A9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=8&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=8&amp;subtask=selections</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
+      <c r="A10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=9&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=9&amp;subtask=selections</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
+      <c r="A11" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=10&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=10&amp;subtask=selections</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>0</v>
+      <c r="A12" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=11&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=11&amp;subtask=selections</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>0</v>
+      <c r="A13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=12&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=12&amp;subtask=selections</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
+      <c r="A14" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=13&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=13&amp;subtask=selections</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>0</v>
+      <c r="A15" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=14&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=14&amp;subtask=selections</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
+      <c r="A16" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=15&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=15&amp;subtask=selections</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
+      <c r="A17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=16&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=16&amp;subtask=selections</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>0</v>
+      <c r="A18" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=17&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=17&amp;subtask=selections</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
+      <c r="A19" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=18&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=18&amp;subtask=selections</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>0</v>
+      <c r="A20" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=19&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=19&amp;subtask=selections</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>0</v>
+      <c r="A21" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=20&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=20&amp;subtask=selections</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>0</v>
+      <c r="A22" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=21&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=21&amp;subtask=selections</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>0</v>
+      <c r="A23" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=22&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=22&amp;subtask=selections</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>0</v>
+      <c r="A24" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=23&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=23&amp;subtask=selections</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>0</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=24&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=24&amp;subtask=selections</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>0</v>
+      <c r="A26" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=25&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=25&amp;subtask=selections</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>0</v>
+      <c r="A27" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=26&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=26&amp;subtask=selections</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>0</v>
+      <c r="A28" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=27&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=27&amp;subtask=selections</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>0</v>
+      <c r="A29" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=28&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=28&amp;subtask=selections</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>0</v>
+      <c r="A30" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=29&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=29&amp;subtask=selections</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>0</v>
+      <c r="A31" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=30&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=30&amp;subtask=selections</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>0</v>
+      <c r="A32" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=31&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=31&amp;subtask=selections</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>0</v>
+      <c r="A33" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=32&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=32&amp;subtask=selections</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>0</v>
+      <c r="A34" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=33&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=33&amp;subtask=selections</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>0</v>
+      <c r="A35" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=34&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=34&amp;subtask=selections</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>0</v>
+      <c r="A36" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=35&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=35&amp;subtask=selections</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>0</v>
+      <c r="A37" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=36&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=36&amp;subtask=selections</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>0</v>
+      <c r="A38" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=37&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=37&amp;subtask=selections</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>0</v>
+      <c r="A39" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=38&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=38&amp;subtask=selections</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>0</v>
+      <c r="A40" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=39&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=39&amp;subtask=selections</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>0</v>
+      <c r="A41" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=40&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=40&amp;subtask=selections</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>0</v>
+      <c r="A42" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1556&amp;year_end=1725&amp;formtype=selections&amp;page=41&amp;subtask=selections</v>
+        <v>http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=41&amp;subtask=selections</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{90F5ADEF-D6D1-3F46-83B9-C8538137AEA9}"/>
+    <hyperlink ref="A3:A42" r:id="rId2" display="http://www.vondel.humanities.uva.nl/ecartico/persons/index.php?occupation_id=130%2C209&amp;subjectmat=&amp;place=Amsterdam&amp;gender=male&amp;year_start=1506&amp;year_end=1725&amp;formtype=selections&amp;page=" xr:uid="{F3E069B1-AB4B-C444-A69E-0B743AECDE6B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D574ACC8-730B-224D-AF66-8E5FD372FA15}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1" xr:uid="{3AB34234-D5D5-8E40-8F18-14BD68C8D3A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A33B0F-1D6B-4B40-AAD7-71EFF5D6EB0E}">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,212 +1585,212 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
